--- a/Test Plans/OrderLevels.xlsx
+++ b/Test Plans/OrderLevels.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>Kristina Frye</t>
   </si>
@@ -67,9 +66,6 @@
     <t>A list of available Baked Goods will appear with Quantity 0 for all rows</t>
   </si>
   <si>
-    <t>Cookies</t>
-  </si>
-  <si>
     <t>The quantity for cookies will be updated to 25 in the listbox</t>
   </si>
   <si>
@@ -85,9 +81,6 @@
     <t>Select Muffin in listbox</t>
   </si>
   <si>
-    <t>Error: Desired quantity between 0 and 300 must be entered</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -101,6 +94,48 @@
   </si>
   <si>
     <t>Close program and reopen to Order Levels screen. Select Joe's Shop</t>
+  </si>
+  <si>
+    <t>Click Add</t>
+  </si>
+  <si>
+    <t>The item will be unselected, the quantity will be blank. No item will be selected in the listbox</t>
+  </si>
+  <si>
+    <t>Error: You must select a baked good.</t>
+  </si>
+  <si>
+    <t>Donut</t>
+  </si>
+  <si>
+    <t>Donut with quantity 1 added to listbox</t>
+  </si>
+  <si>
+    <t>Click Delete</t>
+  </si>
+  <si>
+    <t>Donut is deleted from the listbox</t>
+  </si>
+  <si>
+    <t>Delete all items from the listbox and then click delete again</t>
+  </si>
+  <si>
+    <t>Error: You must select an item to delete first</t>
+  </si>
+  <si>
+    <t>Error: Desired quantity between 1 and 300 must be entered, You must select a baked good.</t>
+  </si>
+  <si>
+    <t>Error: Desired quantity between 1 and 300 must be entered</t>
+  </si>
+  <si>
+    <t>Item Selection</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>Tab order: Customer selection, listbox, item selection, quantity, Save, Add, Delete</t>
   </si>
 </sst>
 </file>
@@ -473,49 +508,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>41427</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -526,47 +565,53 @@
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -574,36 +619,42 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -611,103 +662,240 @@
         <v>301</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="F21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>300</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
         <v>7</v>
       </c>
     </row>
